--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/invest/Invest.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/invest/Invest.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,13 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录</t>
-    <rPh sb="0" eb="1">
-      <t>deng l</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mobile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,54 +70,10 @@
     <t>pictureVerification</t>
   </si>
   <si>
-    <t>0615</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>smsCode</t>
   </si>
   <si>
-    <t>bankName</t>
-  </si>
-  <si>
-    <t>bankCardNum</t>
-  </si>
-  <si>
-    <t>bankMobile</t>
-  </si>
-  <si>
-    <t>bankSmsCode</t>
-  </si>
-  <si>
-    <t>bankLimitPrompt</t>
-  </si>
-  <si>
-    <t>中国工商银行</t>
-    <rPh sb="1" eb="2">
-      <t>gong'sh</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yin'h</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${BankCardUtils.getUnUsedBankCard(622202100112)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18663049557</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0615</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑卡成功</t>
-    <rPh sb="1" eb="2">
-      <t>ch'gong</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -160,10 +109,108 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>投资--</t>
+    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
+  </si>
+  <si>
+    <t>韩诺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankCardNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankCode</t>
+  </si>
+  <si>
+    <t>investMoney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankSmsCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it7891234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0615</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0615</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月月升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>888888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月月升</t>
     <rPh sb="0" eb="1">
-      <t>tou'zi</t>
-    </rPh>
+      <t>yue'y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴心计划5148期</t>
+    <rPh sb="0" eb="1">
+      <t>tie'xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴心计划5148期</t>
+    <rPh sb="0" eb="1">
+      <t>tie'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'h</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资</t>
+    <rPh sb="0" eb="1">
+      <t>tou'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -528,10 +575,12 @@
     <col min="5" max="5" width="31.1640625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="15.5" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" customWidth="1"/>
-    <col min="14" max="14" width="45.33203125" customWidth="1"/>
+    <col min="8" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="53" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="45.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" customWidth="1"/>
+    <col min="14" max="14" width="21.1640625" customWidth="1"/>
     <col min="15" max="15" width="14.1640625" customWidth="1"/>
     <col min="16" max="16" width="12.1640625" customWidth="1"/>
     <col min="17" max="17" width="15.1640625" customWidth="1"/>
@@ -542,52 +591,52 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>18</v>
       </c>
       <c r="R1" t="s">
         <v>2</v>
@@ -598,50 +647,114 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" t="s">
-        <v>6</v>
+      <c r="M3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/invest/Invest.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/invest/Invest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440"/>
+    <workbookView xWindow="640" yWindow="4920" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,9 +82,6 @@
   <si>
     <t>sit</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackBox</t>
   </si>
   <si>
     <t>idCard</t>
@@ -116,13 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bankCardNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bankCode</t>
-  </si>
-  <si>
     <t>investMoney</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,10 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bankSmsCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,14 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0615</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0615</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>月月升</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,10 +138,6 @@
   </si>
   <si>
     <t>888888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -211,6 +185,51 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankName</t>
+  </si>
+  <si>
+    <t>bankCardNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国工商银行</t>
+    <rPh sb="1" eb="2">
+      <t>gong'sh</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yin'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国工商银行</t>
+    <rPh sb="1" eb="2">
+      <t>gogn'sh</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yin'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankMobile</t>
+  </si>
+  <si>
+    <t>bankSmsCode</t>
+  </si>
+  <si>
+    <t>18663049557</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0987</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,7 +583,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -575,15 +594,15 @@
     <col min="5" max="5" width="31.1640625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="53" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="53" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" customWidth="1"/>
     <col min="12" max="12" width="45.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" customWidth="1"/>
-    <col min="14" max="14" width="21.1640625" customWidth="1"/>
-    <col min="15" max="15" width="14.1640625" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" customWidth="1"/>
-    <col min="17" max="17" width="15.1640625" customWidth="1"/>
+    <col min="13" max="14" width="12.83203125" customWidth="1"/>
+    <col min="15" max="15" width="21.1640625" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
@@ -591,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
@@ -618,25 +637,25 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
         <v>24</v>
-      </c>
-      <c r="M1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>28</v>
       </c>
       <c r="R1" t="s">
         <v>2</v>
@@ -647,13 +666,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -662,43 +681,43 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" t="s">
         <v>33</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -706,10 +725,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -718,43 +737,43 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/invest/Invest.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/invest/Invest.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="4920" windowWidth="25600" windowHeight="14440"/>
+    <workbookView xWindow="1780" yWindow="1520" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
-    <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,14 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验金额、支付密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>comments</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,18 +54,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pictureVerification</t>
   </si>
   <si>
     <t>smsCode</t>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUnUsedBankCard(622202100112)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>environment</t>
@@ -106,9 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
-  </si>
-  <si>
     <t>韩诺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,32 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>贴心计划5148期</t>
-    <rPh sb="0" eb="1">
-      <t>tie'xin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'hua</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>qi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴心计划5148期</t>
-    <rPh sb="0" eb="1">
-      <t>tie'x</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'h</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>qi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>投资</t>
     <rPh sb="0" eb="1">
       <t>tou'z</t>
@@ -225,11 +179,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0987</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0987</t>
+    <t>blackBox</t>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+  </si>
+  <si>
+    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(621226100102)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(621226100102)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴心计划</t>
+    <rPh sb="0" eb="1">
+      <t>tie'xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴心计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09870987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09870987</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -602,211 +588,187 @@
     <col min="13" max="14" width="12.83203125" customWidth="1"/>
     <col min="15" max="15" width="21.1640625" customWidth="1"/>
     <col min="16" max="16" width="14.1640625" customWidth="1"/>
-    <col min="17" max="17" width="12.1640625" customWidth="1"/>
+    <col min="17" max="18" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="Q1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" t="s">
-        <v>5</v>
+      <c r="K2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="1">
+        <v>939838</v>
+      </c>
+      <c r="T2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1">
+        <v>939938</v>
+      </c>
+      <c r="T3" t="s">
         <v>26</v>
-      </c>
-      <c r="S3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/invest/Invest.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/invest/Invest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="1520" windowWidth="25600" windowHeight="14440"/>
+    <workbookView xWindow="260" yWindow="1220" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="46">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>月月升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8888</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bankName</t>
   </si>
   <si>
@@ -207,15 +199,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>贴心计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>09870987</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>09870987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新客计划</t>
+    <rPh sb="0" eb="1">
+      <t>xin'k</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精选计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺诺盈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>债转计划</t>
+    <rPh sb="0" eb="1">
+      <t>zhai'zhuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -623,16 +643,16 @@
         <v>12</v>
       </c>
       <c r="K1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
@@ -644,7 +664,7 @@
         <v>19</v>
       </c>
       <c r="R1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="S1" t="s">
         <v>2</v>
@@ -655,49 +675,49 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>20</v>
@@ -709,7 +729,7 @@
         <v>939838</v>
       </c>
       <c r="T2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -720,43 +740,43 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="O3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>20</v>
@@ -768,7 +788,243 @@
         <v>939938</v>
       </c>
       <c r="T3" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="1">
+        <v>939938</v>
+      </c>
+      <c r="T4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="1">
+        <v>939938</v>
+      </c>
+      <c r="T5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" s="1">
+        <v>939938</v>
+      </c>
+      <c r="T6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="1">
+        <v>939938</v>
+      </c>
+      <c r="T7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/invest/Invest.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/invest/Invest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="260" yWindow="1220" windowWidth="25600" windowHeight="14440"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>it7891234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,14 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>09870987</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09870987</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新客计划</t>
     <rPh sb="0" eb="1">
       <t>xin'k</t>
@@ -225,17 +213,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>债转计划</t>
-    <rPh sb="0" eb="1">
-      <t>zhai'zhuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'h</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>939838988383</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -643,16 +641,16 @@
         <v>12</v>
       </c>
       <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
       <c r="M1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" t="s">
         <v>30</v>
-      </c>
-      <c r="N1" t="s">
-        <v>31</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
@@ -664,7 +662,7 @@
         <v>19</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S1" t="s">
         <v>2</v>
@@ -675,61 +673,61 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" t="s">
         <v>24</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="1">
-        <v>939838</v>
-      </c>
-      <c r="T2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -740,55 +738,55 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
-      </c>
       <c r="P3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" s="1">
-        <v>939938</v>
+      <c r="R3" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="T3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -799,55 +797,55 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="1">
-        <v>939938</v>
+      <c r="R4" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="T4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -858,55 +856,55 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" t="s">
         <v>39</v>
       </c>
-      <c r="O5" t="s">
-        <v>42</v>
-      </c>
       <c r="P5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" s="1">
-        <v>939938</v>
+      <c r="R5" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="T5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -917,114 +915,55 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="O6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R6" s="1">
-        <v>939938</v>
+      <c r="R6" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="T6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R7" s="1">
-        <v>939938</v>
-      </c>
-      <c r="T7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/invest/Invest.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/invest/Invest.xlsx
@@ -213,27 +213,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>939838988383</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>939838988383</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -673,7 +673,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -712,19 +712,19 @@
         <v>31</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T2" t="s">
         <v>24</v>
@@ -771,19 +771,19 @@
         <v>31</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T3" t="s">
         <v>24</v>
@@ -830,19 +830,19 @@
         <v>31</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O4" t="s">
         <v>38</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T4" t="s">
         <v>24</v>
@@ -889,19 +889,19 @@
         <v>31</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O5" t="s">
         <v>39</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T5" t="s">
         <v>24</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -948,19 +948,19 @@
         <v>31</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O6" t="s">
         <v>40</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T6" t="s">
         <v>24</v>

--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/invest/Invest.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/invest/Invest.xlsx
@@ -63,10 +63,6 @@
     <t>environment</t>
   </si>
   <si>
-    <t>sit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>idCard</t>
   </si>
   <si>
@@ -170,9 +166,6 @@
     <t>blackBox</t>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-  </si>
-  <si>
     <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,6 +227,14 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${EnvUtils.getEnv()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${MobileUtil.getUnRegisterMobile()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +588,7 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -614,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -635,34 +636,34 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
       <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" t="s">
-        <v>19</v>
-      </c>
       <c r="R1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S1" t="s">
         <v>2</v>
@@ -676,58 +677,58 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" t="s">
         <v>23</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -735,58 +736,58 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -794,58 +795,58 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" t="s">
-        <v>38</v>
-      </c>
       <c r="P4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="T4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -853,117 +854,117 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/invest/Invest.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/invest/Invest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440"/>
+    <workbookView xWindow="1400" yWindow="3360" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="48">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,10 @@
   </si>
   <si>
     <t>${MobileUtil.getUnRegisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -674,7 +678,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
